--- a/SmartBooks.HumanResource/bin/x86/Debug/Teamleate/NhapThongTinGiaDinh.xlsx
+++ b/SmartBooks.HumanResource/bin/x86/Debug/Teamleate/NhapThongTinGiaDinh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCodeHR\SnK_Dev\SmartBooks.HumanResource\bin\x86\Debug\Teamleate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A2C25D-846C-4AA1-946E-46BC31604AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F771C00-D344-4125-BF17-0CE4EBDC2504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,13 +253,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,7 +576,7 @@
   <dimension ref="A3:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -585,9 +584,8 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
@@ -718,10 +716,10 @@
       </c>
     </row>
     <row r="7" spans="1:26" hidden="1">
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" t="s">
         <v>52</v>
       </c>
     </row>
